--- a/biology/Botanique/Piet_Oudolf/Piet_Oudolf.xlsx
+++ b/biology/Botanique/Piet_Oudolf/Piet_Oudolf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piet Oudolf (prononcé en néerlandais : [ˌpit ˈʌu̯dɔlf]), né le 27 octobre 1944, est un concepteur de jardin néerlandais influent, pépiniériste et auteur. Il est une figure de proue du mouvement "New Perennial" - ses créations et compositions végétales utilisant des dérives audacieuses de plantes vivaces et de graminées herbacées choisies au moins autant pour leur structure que pour la couleur de leur fleur.
 </t>
@@ -511,18 +523,20 @@
           <t>Projets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardin, près du Vitra Design Museum (2021)
 Oudolf Garden Detroit at Belle Isle Park (Michigan, États-Unis, 2020)
 Jardin de prairie, Delaware Botanic Gardens (Dagsboro, Delaware, États-Unis, 2019)
-Jardin de sculptures du Singer Laren (Laren, Pays-Bas, 2018)[1]
-Vlinderhof (Leidsche Rijn, Pays-Bas, 2014)[2]
-Hauser &amp; Wirth (Bruton Somerset, Angleterre, 2013)[3]
-Serpentine Gallery, jardin intérieur (Londres, Angleterre, 2011 avec Peter Zumthor)[4]
+Jardin de sculptures du Singer Laren (Laren, Pays-Bas, 2018)
+Vlinderhof (Leidsche Rijn, Pays-Bas, 2014)
+Hauser &amp; Wirth (Bruton Somerset, Angleterre, 2013)
+Serpentine Gallery, jardin intérieur (Londres, Angleterre, 2011 avec Peter Zumthor)
 High Line (New York, 2006)
-Promenade du jardin d'entrée du jardin botanique de Toronto (Toronto, 2006)[5]
-Domaine de Trentham (Trentham, Stoke-On-Trent, 2004)[6]
+Promenade du jardin d'entrée du jardin botanique de Toronto (Toronto, 2006)
+Domaine de Trentham (Trentham, Stoke-On-Trent, 2004)
 Battery Park (New York, 2003)
 Lurie Garden, Millennium Park (Chicago, 2003 avec Kathryn Gustafson et Shannon Nichol)
 Scampston Hall (Angleterre, 2002-2003)
@@ -561,7 +575,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gardening With Grasses (1998) avec Michael King et Beth Chatto
 Designing With Plants (1999) avec Noel Kingsbury
@@ -598,9 +614,11 @@
           <t>Films</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Five Seasons: The Gardens of Piet Oudolf (2017), un documentaire réalisé par Thomas Piper présentant les jardins conçus par Piet Oudolf à travers cinq saisons[7],[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Five Seasons: The Gardens of Piet Oudolf (2017), un documentaire réalisé par Thomas Piper présentant les jardins conçus par Piet Oudolf à travers cinq saisons,.</t>
         </is>
       </c>
     </row>
@@ -628,11 +646,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médaille commémorative Veitch (2002)
-Prix d'excellence de la Commission du design public de la ville de New York (2004)[9]
-Prix Dalecarlica des commissaires suédois des parcs (2009)[10]
+Prix d'excellence de la Commission du design public de la ville de New York (2004)
+Prix Dalecarlica des commissaires suédois des parcs (2009)
 Prix de distinction de l'Association des paysagistes professionnels (2010)</t>
         </is>
       </c>
